--- a/yti-taxgen-test-commons/src/main/resources/test_fixtures/rds_source_config/dm_integration_fixture/explicit-domains-2018-1.xlsx
+++ b/yti-taxgen-test-commons/src/main/resources/test_fixtures/rds_source_config/dm_integration_fixture/explicit-domains-2018-1.xlsx
@@ -16,11 +16,29 @@
     <numFmt numFmtId="100" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="101" formatCode="yyyy/mm/dd hh:mm:ss"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="4">
     <font>
       <name val="Arial"/>
       <sz val="11"/>
       <family val="1"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11"/>
+      <family val="1"/>
+      <b val="1"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11"/>
+      <family val="1"/>
+      <b val="1"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11"/>
+      <family val="1"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -51,10 +69,13 @@
   <cellStyleXfs count="1">
     <xf borderId="0" numFmtId="0" fontId="0" fillId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf borderId="0" numFmtId="0" fontId="0" fillId="0" xfId="0"/>
     <xf borderId="1" numFmtId="0" fontId="0" fillId="0" xfId="0"/>
     <xf borderId="0" numFmtId="14" fontId="0" fillId="0" xfId="0" applyNumberFormat="1"/>
+    <xf borderId="0" numFmtId="0" fontId="1" fillId="0" applyNumberFormat="0" applyFill="0" applyFont="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" numFmtId="0" fontId="2" fillId="0" applyNumberFormat="0" applyFill="0" applyFont="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" numFmtId="0" fontId="3" fillId="0" applyNumberFormat="0" applyFill="0" applyFont="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0"/>
@@ -75,89 +96,89 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="1" customWidth="1" width="29.700000000000003"/>
-    <col min="2" max="2" bestFit="1" customWidth="1" width="14.3"/>
-    <col min="3" max="3" bestFit="1" customWidth="1" width="17.6"/>
-    <col min="4" max="4" bestFit="1" customWidth="1" width="15.400000000000002"/>
-    <col min="5" max="5" bestFit="1" customWidth="1" width="9.9"/>
-    <col min="6" max="6" bestFit="1" customWidth="1" width="13.200000000000001"/>
+    <col min="1" max="1" bestFit="1" customWidth="1" width="35.2"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" width="18.15"/>
+    <col min="3" max="3" bestFit="1" customWidth="1" width="26.4"/>
+    <col min="4" max="4" bestFit="1" customWidth="1" width="23.099999999999998"/>
+    <col min="5" max="5" bestFit="1" customWidth="1" width="14.85"/>
+    <col min="6" max="6" bestFit="1" customWidth="1" width="19.799999999999997"/>
     <col min="7" max="7" bestFit="1" customWidth="1" width="17.6"/>
-    <col min="8" max="8" bestFit="1" customWidth="1" width="13.200000000000001"/>
+    <col min="8" max="8" bestFit="1" customWidth="1" width="19.799999999999997"/>
     <col min="9" max="9" bestFit="1" customWidth="1" width="66.0"/>
-    <col min="10" max="10" bestFit="1" customWidth="1" width="16.5"/>
-    <col min="11" max="11" bestFit="1" customWidth="1" width="13.200000000000001"/>
-    <col min="12" max="12" bestFit="1" customWidth="1" width="11.0"/>
-    <col min="13" max="13" bestFit="1" customWidth="1" width="14.3"/>
-    <col min="14" max="14" bestFit="1" customWidth="1" width="18.700000000000003"/>
+    <col min="10" max="10" bestFit="1" customWidth="1" width="24.75"/>
+    <col min="11" max="11" bestFit="1" customWidth="1" width="19.799999999999997"/>
+    <col min="12" max="12" bestFit="1" customWidth="1" width="16.5"/>
+    <col min="13" max="13" bestFit="1" customWidth="1" width="21.45"/>
+    <col min="14" max="14" bestFit="1" customWidth="1" width="28.049999999999997"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="0" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>CODEVALUE</t>
         </is>
       </c>
-      <c r="C1" s="0" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>INFORMATIONDOMAIN</t>
         </is>
       </c>
-      <c r="D1" s="0" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>LANGUAGECODE</t>
         </is>
       </c>
-      <c r="E1" s="0" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="F1" s="0" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>DEFAULTCODE</t>
         </is>
       </c>
-      <c r="G1" s="0" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>PREFLABEL_FI</t>
         </is>
       </c>
-      <c r="H1" s="0" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>PREFLABEL_EN</t>
         </is>
       </c>
-      <c r="I1" s="0" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>DESCRIPTION_FI</t>
         </is>
       </c>
-      <c r="J1" s="0" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>DESCRIPTION_EN</t>
         </is>
       </c>
-      <c r="K1" s="0" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>STARTDATE</t>
         </is>
       </c>
-      <c r="L1" s="0" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>ENDDATE</t>
         </is>
       </c>
-      <c r="M1" s="0" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>CODESSHEET</t>
         </is>
       </c>
-      <c r="N1" s="0" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>EXTENSIONSSHEET</t>
         </is>
@@ -166,7 +187,7 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>236dbc3f-f60c-4a1a-85de-7b5fb6d741cd</t>
+          <t>659f916f-54b0-4e94-ad01-029d40e33885</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
@@ -235,71 +256,71 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="1" customWidth="1" width="34.1"/>
-    <col min="2" max="2" bestFit="1" customWidth="1" width="12.100000000000001"/>
-    <col min="3" max="3" bestFit="1" customWidth="1" width="11.0"/>
-    <col min="4" max="4" bestFit="1" customWidth="1" width="9.9"/>
+    <col min="1" max="1" bestFit="1" customWidth="1" width="38.5"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" width="18.15"/>
+    <col min="3" max="3" bestFit="1" customWidth="1" width="16.5"/>
+    <col min="4" max="4" bestFit="1" customWidth="1" width="14.85"/>
     <col min="5" max="5" bestFit="1" customWidth="1" width="16.5"/>
-    <col min="6" max="6" bestFit="1" customWidth="1" width="13.200000000000001"/>
-    <col min="7" max="7" bestFit="1" customWidth="1" width="19.8"/>
-    <col min="8" max="8" bestFit="1" customWidth="1" width="16.5"/>
-    <col min="9" max="9" bestFit="1" customWidth="1" width="13.200000000000001"/>
-    <col min="10" max="10" bestFit="1" customWidth="1" width="12.100000000000001"/>
-    <col min="11" max="11" bestFit="1" customWidth="1" width="36.300000000000004"/>
+    <col min="6" max="6" bestFit="1" customWidth="1" width="19.799999999999997"/>
+    <col min="7" max="7" bestFit="1" customWidth="1" width="21.45"/>
+    <col min="8" max="8" bestFit="1" customWidth="1" width="24.75"/>
+    <col min="9" max="9" bestFit="1" customWidth="1" width="19.799999999999997"/>
+    <col min="10" max="10" bestFit="1" customWidth="1" width="16.5"/>
+    <col min="11" max="11" bestFit="1" customWidth="1" width="35.2"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="0" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>CODEVALUE</t>
         </is>
       </c>
-      <c r="C1" s="0" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>BROADER</t>
         </is>
       </c>
-      <c r="D1" s="0" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="E1" s="0" t="inlineStr">
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>PREFLABEL_FI</t>
         </is>
       </c>
-      <c r="F1" s="0" t="inlineStr">
+      <c r="F1" s="4" t="inlineStr">
         <is>
           <t>PREFLABEL_EN</t>
         </is>
       </c>
-      <c r="G1" s="0" t="inlineStr">
+      <c r="G1" s="4" t="inlineStr">
         <is>
           <t>DESCRIPTION_FI</t>
         </is>
       </c>
-      <c r="H1" s="0" t="inlineStr">
+      <c r="H1" s="4" t="inlineStr">
         <is>
           <t>DESCRIPTION_EN</t>
         </is>
       </c>
-      <c r="I1" s="0" t="inlineStr">
+      <c r="I1" s="4" t="inlineStr">
         <is>
           <t>STARTDATE</t>
         </is>
       </c>
-      <c r="J1" s="0" t="inlineStr">
+      <c r="J1" s="4" t="inlineStr">
         <is>
           <t>ENDDATE</t>
         </is>
       </c>
-      <c r="K1" s="0" t="inlineStr">
+      <c r="K1" s="4" t="inlineStr">
         <is>
           <t>SUBCODESCHEME</t>
         </is>
@@ -308,7 +329,7 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>9e6d9030-e213-4f1d-a777-7a69bbadd2b4</t>
+          <t>b6034beb-48b1-476c-b389-4466a550f570</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
@@ -346,14 +367,14 @@
       </c>
       <c r="K2" s="0" t="inlineStr">
         <is>
-          <t>5cb2e7e8-5b85-4bf0-b94e-c289974348fe</t>
+          <t>142e10e1-4e52-43f6-99e8-a21a5f8ec354</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>a6065abc-5bd0-49d9-a5b8-70f68d7b5708</t>
+          <t>a8ab2568-627c-4f66-893f-5f1bf29a8fdb</t>
         </is>
       </c>
       <c r="B3" s="0" t="inlineStr">
@@ -387,14 +408,14 @@
       <c r="J3" s="0"/>
       <c r="K3" s="0" t="inlineStr">
         <is>
-          <t>d79df7c8-d404-4882-8d90-d2afff7b3e8d</t>
+          <t>7750dc2b-525f-4f26-a432-e4f04ad5b5e8</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>c919726b-6210-47eb-9a0d-c86f3b3a4232</t>
+          <t>0d194d52-5f80-4f79-ab49-892ba58e2e57</t>
         </is>
       </c>
       <c r="B4" s="0" t="inlineStr">
@@ -428,14 +449,14 @@
       <c r="J4" s="0"/>
       <c r="K4" s="0" t="inlineStr">
         <is>
-          <t>96354ebc-6953-4253-8695-939d98d04ba7</t>
+          <t>04867dfb-9eae-4665-8d46-f66b78260752</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>4fcf48a5-b904-4a41-8fec-c66d56187308</t>
+          <t>23319de9-7bd4-45b2-860d-860585e64188</t>
         </is>
       </c>
       <c r="B5" s="0" t="inlineStr">
@@ -469,14 +490,14 @@
       <c r="J5" s="0"/>
       <c r="K5" s="0" t="inlineStr">
         <is>
-          <t>25c130fb-89c7-4edf-959d-79cef3165f0a</t>
+          <t>1824d625-7eec-490e-885e-e00b903f28ac</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
         <is>
-          <t>773f04b3-ad7d-48ba-829b-9b70c916f6ab</t>
+          <t>20aa51cd-f8e1-4411-abc1-52caa9ff6a6a</t>
         </is>
       </c>
       <c r="B6" s="0" t="inlineStr">
@@ -510,14 +531,14 @@
       <c r="J6" s="0"/>
       <c r="K6" s="0" t="inlineStr">
         <is>
-          <t>965edc64-220d-4478-a713-c79dc59464ca</t>
+          <t>b45f5fe5-89c2-4561-86fd-00315aa93d3d</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
         <is>
-          <t>67f70f36-4824-4c1b-9da6-9f55c26ffc8f</t>
+          <t>dccb79a2-e7fe-4fb3-afa4-7ea33f1daef0</t>
         </is>
       </c>
       <c r="B7" s="0" t="inlineStr">
@@ -551,14 +572,14 @@
       <c r="J7" s="0"/>
       <c r="K7" s="0" t="inlineStr">
         <is>
-          <t>4c6460c0-be66-4674-99e5-c0840269980f</t>
+          <t>42058b83-d1d7-4018-bd20-ea053d4f9aef</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
         <is>
-          <t>3dc43d2a-17b0-49d3-a12e-5889f5621fd9</t>
+          <t>53573e19-43f9-44a9-9645-9351cb3df12a</t>
         </is>
       </c>
       <c r="B8" s="0" t="inlineStr">
@@ -592,7 +613,7 @@
       <c r="J8" s="0"/>
       <c r="K8" s="0" t="inlineStr">
         <is>
-          <t>6c162eb2-9cf8-44b3-a61b-e097198ec441</t>
+          <t>ed5c8cc0-3299-463d-9474-56242187e817</t>
         </is>
       </c>
     </row>
@@ -617,58 +638,58 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" width="34.1"/>
-    <col min="2" max="2" bestFit="1" customWidth="1" width="13.200000000000001"/>
-    <col min="3" max="3" bestFit="1" customWidth="1" width="9.9"/>
-    <col min="4" max="4" bestFit="1" customWidth="1" width="16.5"/>
-    <col min="5" max="5" bestFit="1" customWidth="1" width="11.0"/>
-    <col min="6" max="6" bestFit="1" customWidth="1" width="13.200000000000001"/>
-    <col min="7" max="7" bestFit="1" customWidth="1" width="13.200000000000001"/>
-    <col min="8" max="8" bestFit="1" customWidth="1" width="11.0"/>
-    <col min="9" max="9" bestFit="1" customWidth="1" width="16.5"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" width="18.15"/>
+    <col min="3" max="3" bestFit="1" customWidth="1" width="14.85"/>
+    <col min="4" max="4" bestFit="1" customWidth="1" width="24.75"/>
+    <col min="5" max="5" bestFit="1" customWidth="1" width="16.5"/>
+    <col min="6" max="6" bestFit="1" customWidth="1" width="19.799999999999997"/>
+    <col min="7" max="7" bestFit="1" customWidth="1" width="19.799999999999997"/>
+    <col min="8" max="8" bestFit="1" customWidth="1" width="16.5"/>
+    <col min="9" max="9" bestFit="1" customWidth="1" width="24.75"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="0" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>CODEVALUE</t>
         </is>
       </c>
-      <c r="C1" s="0" t="inlineStr">
+      <c r="C1" s="5" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="D1" s="0" t="inlineStr">
+      <c r="D1" s="5" t="inlineStr">
         <is>
           <t>PROPERTYTYPE</t>
         </is>
       </c>
-      <c r="E1" s="0" t="inlineStr">
+      <c r="E1" s="5" t="inlineStr">
         <is>
           <t>PREFLABEL_FI</t>
         </is>
       </c>
-      <c r="F1" s="0" t="inlineStr">
+      <c r="F1" s="5" t="inlineStr">
         <is>
           <t>PREFLABEL_EN</t>
         </is>
       </c>
-      <c r="G1" s="0" t="inlineStr">
+      <c r="G1" s="5" t="inlineStr">
         <is>
           <t>STARTDATE</t>
         </is>
       </c>
-      <c r="H1" s="0" t="inlineStr">
+      <c r="H1" s="5" t="inlineStr">
         <is>
           <t>ENDDATE</t>
         </is>
       </c>
-      <c r="I1" s="0" t="inlineStr">
+      <c r="I1" s="5" t="inlineStr">
         <is>
           <t>MEMBERSSHEET</t>
         </is>
@@ -677,7 +698,7 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>f5bd0a79-08dd-4f86-8459-6906510d40a8</t>
+          <t>256de386-fd42-4816-a5b2-2840514f53ae</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">

--- a/yti-taxgen-test-commons/src/main/resources/test_fixtures/rds_source_config/dm_integration_fixture/explicit-domains-2018-1.xlsx
+++ b/yti-taxgen-test-commons/src/main/resources/test_fixtures/rds_source_config/dm_integration_fixture/explicit-domains-2018-1.xlsx
@@ -96,7 +96,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="1" customWidth="1" width="35.2"/>
+    <col min="1" max="1" bestFit="1" customWidth="1" width="30.800000000000004"/>
     <col min="2" max="2" bestFit="1" customWidth="1" width="18.15"/>
     <col min="3" max="3" bestFit="1" customWidth="1" width="26.4"/>
     <col min="4" max="4" bestFit="1" customWidth="1" width="23.099999999999998"/>
@@ -187,7 +187,7 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>659f916f-54b0-4e94-ad01-029d40e33885</t>
+          <t>96ea0b5e-6a08-4a5b-b339-43cd5a0fbf81</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
@@ -256,7 +256,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="1" customWidth="1" width="38.5"/>
+    <col min="1" max="1" bestFit="1" customWidth="1" width="35.2"/>
     <col min="2" max="2" bestFit="1" customWidth="1" width="18.15"/>
     <col min="3" max="3" bestFit="1" customWidth="1" width="16.5"/>
     <col min="4" max="4" bestFit="1" customWidth="1" width="14.85"/>
@@ -266,7 +266,7 @@
     <col min="8" max="8" bestFit="1" customWidth="1" width="24.75"/>
     <col min="9" max="9" bestFit="1" customWidth="1" width="19.799999999999997"/>
     <col min="10" max="10" bestFit="1" customWidth="1" width="16.5"/>
-    <col min="11" max="11" bestFit="1" customWidth="1" width="35.2"/>
+    <col min="11" max="11" bestFit="1" customWidth="1" width="34.1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -329,7 +329,7 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>b6034beb-48b1-476c-b389-4466a550f570</t>
+          <t>b81b6180-8b39-4edd-9fb9-3ef32622f0b0</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
@@ -367,14 +367,14 @@
       </c>
       <c r="K2" s="0" t="inlineStr">
         <is>
-          <t>142e10e1-4e52-43f6-99e8-a21a5f8ec354</t>
+          <t>d67ca944-01ab-4f4b-ba5f-0f2d6482c990</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>a8ab2568-627c-4f66-893f-5f1bf29a8fdb</t>
+          <t>6ba70523-0b4f-45e0-bff0-d248c3824832</t>
         </is>
       </c>
       <c r="B3" s="0" t="inlineStr">
@@ -408,14 +408,14 @@
       <c r="J3" s="0"/>
       <c r="K3" s="0" t="inlineStr">
         <is>
-          <t>7750dc2b-525f-4f26-a432-e4f04ad5b5e8</t>
+          <t>61d21a73-fc06-4697-8ebd-723509c1cc37</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>0d194d52-5f80-4f79-ab49-892ba58e2e57</t>
+          <t>e19f54f2-bd3b-482a-8087-ea962ff9f548</t>
         </is>
       </c>
       <c r="B4" s="0" t="inlineStr">
@@ -449,14 +449,14 @@
       <c r="J4" s="0"/>
       <c r="K4" s="0" t="inlineStr">
         <is>
-          <t>04867dfb-9eae-4665-8d46-f66b78260752</t>
+          <t>fc765e19-55a7-4f7c-af48-028b10acda98</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>23319de9-7bd4-45b2-860d-860585e64188</t>
+          <t>b761e37d-2700-4cff-aec8-728a87e0b31c</t>
         </is>
       </c>
       <c r="B5" s="0" t="inlineStr">
@@ -490,14 +490,14 @@
       <c r="J5" s="0"/>
       <c r="K5" s="0" t="inlineStr">
         <is>
-          <t>1824d625-7eec-490e-885e-e00b903f28ac</t>
+          <t>2ed27bd1-68a6-4724-bccb-46943652c845</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
         <is>
-          <t>20aa51cd-f8e1-4411-abc1-52caa9ff6a6a</t>
+          <t>13510de6-d515-4ed4-a2c7-6b65ff98edb6</t>
         </is>
       </c>
       <c r="B6" s="0" t="inlineStr">
@@ -531,14 +531,14 @@
       <c r="J6" s="0"/>
       <c r="K6" s="0" t="inlineStr">
         <is>
-          <t>b45f5fe5-89c2-4561-86fd-00315aa93d3d</t>
+          <t>96b8aa1f-84a9-4ffe-824d-4e1219e3f2a1</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
         <is>
-          <t>dccb79a2-e7fe-4fb3-afa4-7ea33f1daef0</t>
+          <t>439a12ed-bfa3-4366-94f8-9b592b837929</t>
         </is>
       </c>
       <c r="B7" s="0" t="inlineStr">
@@ -572,14 +572,14 @@
       <c r="J7" s="0"/>
       <c r="K7" s="0" t="inlineStr">
         <is>
-          <t>42058b83-d1d7-4018-bd20-ea053d4f9aef</t>
+          <t>b0603cfb-4121-405f-9ac8-540248a41235</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
         <is>
-          <t>53573e19-43f9-44a9-9645-9351cb3df12a</t>
+          <t>de759e31-9cae-4e06-a8dd-0d8c8cab7faf</t>
         </is>
       </c>
       <c r="B8" s="0" t="inlineStr">
@@ -613,7 +613,7 @@
       <c r="J8" s="0"/>
       <c r="K8" s="0" t="inlineStr">
         <is>
-          <t>ed5c8cc0-3299-463d-9474-56242187e817</t>
+          <t>3713b47f-fdaa-4ae7-98ed-daeefd116a63</t>
         </is>
       </c>
     </row>
@@ -637,7 +637,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="1" customWidth="1" width="34.1"/>
+    <col min="1" max="1" bestFit="1" customWidth="1" width="33.0"/>
     <col min="2" max="2" bestFit="1" customWidth="1" width="18.15"/>
     <col min="3" max="3" bestFit="1" customWidth="1" width="14.85"/>
     <col min="4" max="4" bestFit="1" customWidth="1" width="24.75"/>
@@ -698,7 +698,7 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>256de386-fd42-4816-a5b2-2840514f53ae</t>
+          <t>23ee2455-5c2a-45bb-991e-c924eaa67e72</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">

--- a/yti-taxgen-test-commons/src/main/resources/test_fixtures/rds_source_config/dm_integration_fixture/explicit-domains-2018-1.xlsx
+++ b/yti-taxgen-test-commons/src/main/resources/test_fixtures/rds_source_config/dm_integration_fixture/explicit-domains-2018-1.xlsx
@@ -96,7 +96,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="1" customWidth="1" width="30.800000000000004"/>
+    <col min="1" max="1" bestFit="1" customWidth="1" width="29.700000000000003"/>
     <col min="2" max="2" bestFit="1" customWidth="1" width="18.15"/>
     <col min="3" max="3" bestFit="1" customWidth="1" width="26.4"/>
     <col min="4" max="4" bestFit="1" customWidth="1" width="23.099999999999998"/>
@@ -187,7 +187,7 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>96ea0b5e-6a08-4a5b-b339-43cd5a0fbf81</t>
+          <t>9560e39a-7e35-46ea-b8af-afbb30a91a4b</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
@@ -256,7 +256,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="1" customWidth="1" width="35.2"/>
+    <col min="1" max="1" bestFit="1" customWidth="1" width="34.1"/>
     <col min="2" max="2" bestFit="1" customWidth="1" width="18.15"/>
     <col min="3" max="3" bestFit="1" customWidth="1" width="16.5"/>
     <col min="4" max="4" bestFit="1" customWidth="1" width="14.85"/>
@@ -329,7 +329,7 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>b81b6180-8b39-4edd-9fb9-3ef32622f0b0</t>
+          <t>9c159c69-307c-42f7-a146-9b8d940b064f</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
@@ -367,14 +367,14 @@
       </c>
       <c r="K2" s="0" t="inlineStr">
         <is>
-          <t>d67ca944-01ab-4f4b-ba5f-0f2d6482c990</t>
+          <t>a68e6334-aedf-4a28-9964-057446f62d8c</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>6ba70523-0b4f-45e0-bff0-d248c3824832</t>
+          <t>750f8958-8106-4f72-bff6-62ec413eeb7c</t>
         </is>
       </c>
       <c r="B3" s="0" t="inlineStr">
@@ -408,14 +408,14 @@
       <c r="J3" s="0"/>
       <c r="K3" s="0" t="inlineStr">
         <is>
-          <t>61d21a73-fc06-4697-8ebd-723509c1cc37</t>
+          <t>f01bc58e-d294-4d60-a62c-ef0670327a6c</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>e19f54f2-bd3b-482a-8087-ea962ff9f548</t>
+          <t>27cb809b-3fa5-487a-bacc-db636bddda1a</t>
         </is>
       </c>
       <c r="B4" s="0" t="inlineStr">
@@ -449,14 +449,14 @@
       <c r="J4" s="0"/>
       <c r="K4" s="0" t="inlineStr">
         <is>
-          <t>fc765e19-55a7-4f7c-af48-028b10acda98</t>
+          <t>b2da0f1c-f28c-4559-a5f8-72b0379930d5</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>b761e37d-2700-4cff-aec8-728a87e0b31c</t>
+          <t>4959b7dc-56d3-4d29-80bf-c4c4788d42ce</t>
         </is>
       </c>
       <c r="B5" s="0" t="inlineStr">
@@ -490,14 +490,14 @@
       <c r="J5" s="0"/>
       <c r="K5" s="0" t="inlineStr">
         <is>
-          <t>2ed27bd1-68a6-4724-bccb-46943652c845</t>
+          <t>54afa059-9b2e-4ae8-b566-f001a23f4e21</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
         <is>
-          <t>13510de6-d515-4ed4-a2c7-6b65ff98edb6</t>
+          <t>b2b7ae8c-3d91-4e8c-84a2-cccd538874fb</t>
         </is>
       </c>
       <c r="B6" s="0" t="inlineStr">
@@ -531,14 +531,14 @@
       <c r="J6" s="0"/>
       <c r="K6" s="0" t="inlineStr">
         <is>
-          <t>96b8aa1f-84a9-4ffe-824d-4e1219e3f2a1</t>
+          <t>5e4d6018-a396-4bb9-b75d-9fc0f91d4d50</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
         <is>
-          <t>439a12ed-bfa3-4366-94f8-9b592b837929</t>
+          <t>a3b3d2ee-1a83-4e12-9edb-819c2cbcbc16</t>
         </is>
       </c>
       <c r="B7" s="0" t="inlineStr">
@@ -572,14 +572,14 @@
       <c r="J7" s="0"/>
       <c r="K7" s="0" t="inlineStr">
         <is>
-          <t>b0603cfb-4121-405f-9ac8-540248a41235</t>
+          <t>ac63e4ba-8c75-4a63-a4e5-d4149d960bf2</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
         <is>
-          <t>de759e31-9cae-4e06-a8dd-0d8c8cab7faf</t>
+          <t>d3628223-4b6a-4055-982c-32b04c45f38b</t>
         </is>
       </c>
       <c r="B8" s="0" t="inlineStr">
@@ -613,7 +613,7 @@
       <c r="J8" s="0"/>
       <c r="K8" s="0" t="inlineStr">
         <is>
-          <t>3713b47f-fdaa-4ae7-98ed-daeefd116a63</t>
+          <t>5c8de2aa-8d6b-4814-937f-920da3190315</t>
         </is>
       </c>
     </row>
@@ -637,7 +637,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="1" customWidth="1" width="33.0"/>
+    <col min="1" max="1" bestFit="1" customWidth="1" width="35.2"/>
     <col min="2" max="2" bestFit="1" customWidth="1" width="18.15"/>
     <col min="3" max="3" bestFit="1" customWidth="1" width="14.85"/>
     <col min="4" max="4" bestFit="1" customWidth="1" width="24.75"/>
@@ -698,7 +698,7 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>23ee2455-5c2a-45bb-991e-c924eaa67e72</t>
+          <t>854696e4-fb38-4867-a986-65dd00ead244</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
